--- a/bin/角色数据表.xlsx
+++ b/bin/角色数据表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,32 +41,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>马龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张继科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许昕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>94; 66; 95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三围</t>
-  </si>
-  <si>
-    <t>拍形</t>
-  </si>
-  <si>
-    <t>横拍</t>
-  </si>
-  <si>
-    <t>直拍</t>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啸天狼</t>
+  </si>
+  <si>
+    <t>兰之佩</t>
+  </si>
+  <si>
+    <t>寻常细雨</t>
+  </si>
+  <si>
+    <t>93; 139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1041; 616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>659; 947</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -394,12 +403,12 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -413,10 +422,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -430,16 +439,16 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>96</v>
@@ -453,16 +462,16 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>98</v>
@@ -476,16 +485,16 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>95</v>

--- a/bin/角色数据表.xlsx
+++ b/bin/角色数据表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6980452C-AA02-4EBA-94C2-C0CB7993B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色数据" sheetId="1" r:id="rId1"/>
@@ -25,14 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>属性攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,15 +59,23 @@
     <t>寻常细雨</t>
   </si>
   <si>
-    <t>93; 139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1041; 616</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>659; 947</t>
+    <t>属性.防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性.攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93, 139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1041, 616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>659, 947</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,49 +404,49 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -457,18 +458,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -480,18 +481,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
